--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\irrigation_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\irrigation_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8086283-1AA5-4A96-B7EB-A25FE46411DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECC6366-7373-4B4D-9F80-B74ECBE013EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="-225" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7035" yWindow="10965" windowWidth="7500" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
   <si>
     <t>Bill Of Materials          April 21,2022      19:08:20</t>
   </si>
@@ -252,9 +262,6 @@
     <t>Humidity and Temperature Sensor</t>
   </si>
   <si>
-    <t>SD Card 8 pin header</t>
-  </si>
-  <si>
     <t>Bluetooth Chip Header</t>
   </si>
   <si>
@@ -270,15 +277,9 @@
     <t>15k Ohm Resistor</t>
   </si>
   <si>
-    <t>Terminal for solenoid connectionn</t>
-  </si>
-  <si>
     <t>Power LED</t>
   </si>
   <si>
-    <t>Descriptino</t>
-  </si>
-  <si>
     <t>0.2 Ohm Resistor</t>
   </si>
   <si>
@@ -288,21 +289,12 @@
     <t>658 Ohm Resistor</t>
   </si>
   <si>
-    <t>Terminal for solar panel</t>
-  </si>
-  <si>
     <t>SOT-323</t>
   </si>
   <si>
     <t>Battery Charging IC</t>
   </si>
   <si>
-    <t>Terminal for battery connection</t>
-  </si>
-  <si>
-    <t>Terminal for wall plug</t>
-  </si>
-  <si>
     <t>A126341CT-ND</t>
   </si>
   <si>
@@ -312,9 +304,6 @@
     <t>A126358CT-ND</t>
   </si>
   <si>
-    <t>478-7888-1-ND</t>
-  </si>
-  <si>
     <t>RNCP0805FTD1K00CT-ND</t>
   </si>
   <si>
@@ -322,6 +311,234 @@
   </si>
   <si>
     <t>Vendor</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>28 DIP Socket for microcontroller</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/on-shore-technology-inc/SA283000/3313538</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/ATMEGA328P-PU/1914589</t>
+  </si>
+  <si>
+    <t>SA283000</t>
+  </si>
+  <si>
+    <t>28 Pin DIP</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-PU-ND</t>
+  </si>
+  <si>
+    <t>TO-252-3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/onsemi/NCV7805BDTRKG/1792758</t>
+  </si>
+  <si>
+    <t>NCV7805BDTRKG</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0805JG470R/1712020</t>
+  </si>
+  <si>
+    <t>RMCF0805JG470R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/TNPW0805657RBEEA/4972637</t>
+  </si>
+  <si>
+    <t>TNPW0805657RBEEA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-PB6D4641V/6213877?s=N4IgTCBcDaIApgIwAYCcAWAwgFQLQDkAREAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-passive-product/CRG0805F2K0/2380881?s=N4IgTCBcDaIIIEYwDYDMBWAHAYQCoFoA5AERAF0BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-passive-product/CRG0805F15K/2380847?s=N4IgTCBcDaIIIEYwDYDMAWBBhAKgWgDkAREAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-6DSJR20V/6004350?s=N4IgTCBcDaIAoEYCcYBsB2AwgFQLQDkAREAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>BQ2057WSNTR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/BQ2057WSNTR/1690104</t>
+  </si>
+  <si>
+    <t>8SOIC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0805JR-074K7P/4935349</t>
+  </si>
+  <si>
+    <t>RC0805JR-074K7P</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/micro-commercial-co/SI2102A-TP/15277502</t>
+  </si>
+  <si>
+    <t>SI2102A-TP</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/diodes-incorporated/BSS84W-7-F/806539</t>
+  </si>
+  <si>
+    <t>BSS84W-7-F</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/ecs-inc/ECS-160-20-5PX-TR/765265</t>
+  </si>
+  <si>
+    <t>ECS-160-20-5PX-TR</t>
+  </si>
+  <si>
+    <t>HC-49</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/american-opto-plus-led/L171L-LPGC/12325399</t>
+  </si>
+  <si>
+    <t>L171L-LPGC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/american-technical-ceramics/600S180JT250XT/3905201</t>
+  </si>
+  <si>
+    <t>600S180JT250XT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/dfrobot/SEN0193/6588605</t>
+  </si>
+  <si>
+    <t>SEN0193</t>
+  </si>
+  <si>
+    <t>3POS</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-amp-connectors/282836-2/1826939</t>
+  </si>
+  <si>
+    <t>2POS</t>
+  </si>
+  <si>
+    <t>282836-2</t>
+  </si>
+  <si>
+    <t>B1, B2, J2, J3</t>
+  </si>
+  <si>
+    <t>Terminals  for wall power, battery, solenoid, and solar panel</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>B01AZLA9XQ</t>
+  </si>
+  <si>
+    <t>12V 2A Power Supply and Jack</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Adapter-SANSUN-AC100-240V-Transformers-Switching/dp/B01AZLA9XQ</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Panasonic%20Batteries%20PDFS/N-700AAC.pdf</t>
+  </si>
+  <si>
+    <t>Lithium Ion Battery</t>
+  </si>
+  <si>
+    <t>PRT-12895</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/5183</t>
+  </si>
+  <si>
+    <t>4POS</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10A105KA8NNNC/3886760</t>
+  </si>
+  <si>
+    <t>CL10A105KA8NNNC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B104KB8NNWC/3887593</t>
+  </si>
+  <si>
+    <t>CL10B104KB8NNWC</t>
+  </si>
+  <si>
+    <t>8POS</t>
+  </si>
+  <si>
+    <t>SD Card</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/5249/15841475</t>
+  </si>
+  <si>
+    <t>SD Card breakout</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/254?gclid=CjwKCAjw0a-SBhBkEiwApljU0tR6i71xqx1As5WwJqA_gDKh7X_41Jc6QjGHjRa7cmyix7-lzJH44hoCGPwQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Solar Panel/Charger</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/POWOXI-Maintainer-Intelligent-Controller-Waterproof/dp/B089SW13PP/ref=cm_cr_arp_d_product_top?ie=UTF8</t>
+  </si>
+  <si>
+    <t>B089SW13PP</t>
+  </si>
+  <si>
+    <t>Solenoid</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/997/6827136</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/omron-electronics-inc-emc-div/G5LE-14-DC5/280371</t>
+  </si>
+  <si>
+    <t>G5LE-14 DC5</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
+  </si>
+  <si>
+    <t>6POS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HiLetgo-Wireless-Bluetooth-Transceiver-Arduino/dp/B071YJG8DR</t>
   </si>
 </sst>
 </file>
@@ -820,12 +1037,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1150,16 +1368,19 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -1170,13 +1391,13 @@
         <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -1187,6 +1408,9 @@
       <c r="H1" t="s">
         <v>63</v>
       </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
       <c r="U1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1197,32 +1421,66 @@
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>7.99</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H6" si="0">B2*G2</f>
+        <v>7.99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>34.99</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>34.99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="U3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1237,18 +1495,35 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4">
+        <v>997</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>6.95</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>6.95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="U4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1258,31 +1533,65 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5">
+        <v>0.76</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.04</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>5.95</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="4"/>
       <c r="U6" s="4">
         <v>1</v>
       </c>
@@ -1298,20 +1607,34 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>95</v>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7">
+        <v>0.45</v>
+      </c>
+      <c r="H7" s="4">
+        <f>B7*G7</f>
+        <v>0.45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="4"/>
       <c r="U7" s="4">
         <v>2</v>
       </c>
@@ -1327,17 +1650,34 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
       <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>603</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" ref="H8:H31" si="1">B8*G8</f>
+        <v>0.1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="U8" s="4">
         <v>3</v>
       </c>
@@ -1353,20 +1693,34 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F9">
-        <v>805</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="G9">
+        <v>0.84</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="4"/>
       <c r="U9" s="4">
         <v>4</v>
       </c>
@@ -1382,17 +1736,34 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F10">
+        <v>603</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="U10" s="4">
         <v>5</v>
       </c>
@@ -1408,17 +1779,34 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11">
+        <v>4.5</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="4"/>
       <c r="U11" s="4">
         <v>6</v>
       </c>
@@ -1434,17 +1822,34 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
       <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <v>805</v>
+      </c>
+      <c r="G12">
+        <v>0.32</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="4"/>
       <c r="U12" s="4">
         <v>7</v>
       </c>
@@ -1460,17 +1865,34 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13">
+        <v>1.72</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" s="4"/>
       <c r="U13" s="4">
         <v>8</v>
       </c>
@@ -1486,20 +1908,34 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14">
+        <v>5.9</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>5.9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="4"/>
       <c r="U14" s="4">
         <v>9</v>
       </c>
@@ -1515,20 +1951,34 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G15">
+        <v>0.35</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="U15" s="4">
         <v>10</v>
       </c>
@@ -1544,17 +1994,34 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
       </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
       <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <v>0.44</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="4"/>
       <c r="U16" s="4">
         <v>11</v>
       </c>
@@ -1570,21 +2037,34 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>96</v>
       </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
       <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F17">
+        <v>805</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="4"/>
       <c r="U17" s="4">
         <v>12</v>
       </c>
@@ -1600,21 +2080,34 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="I18" s="4">
+        <v>77</v>
+      </c>
+      <c r="F18" s="4">
+        <v>805</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="4"/>
       <c r="U18" s="4">
         <v>13</v>
       </c>
@@ -1630,21 +2123,34 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="I19" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F19" s="4">
+        <v>805</v>
+      </c>
+      <c r="G19">
+        <v>0.35</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="4"/>
       <c r="U19" s="4">
         <v>14</v>
       </c>
@@ -1660,21 +2166,34 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
       </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="I20" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="F20" s="4">
+        <v>805</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="4"/>
       <c r="U20" s="4">
         <v>15</v>
       </c>
@@ -1690,21 +2209,34 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
       </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F21" s="4">
+        <v>805</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="4"/>
       <c r="U21" s="4">
         <v>16</v>
       </c>
@@ -1720,18 +2252,34 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="I22" s="4">
-        <v>470</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>805</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="4"/>
       <c r="U22" s="4">
         <v>17</v>
       </c>
@@ -1747,17 +2295,32 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
       <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="I23" s="4">
-        <v>658</v>
+        <v>82</v>
+      </c>
+      <c r="F23" s="4">
+        <v>805</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>105</v>
       </c>
       <c r="U23" s="4">
         <v>18</v>
@@ -1774,17 +2337,34 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
       <c r="E24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F24" s="4">
+        <v>805</v>
+      </c>
+      <c r="G24">
+        <v>0.17</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="4"/>
       <c r="U24" s="4">
         <v>19</v>
       </c>
@@ -1800,20 +2380,34 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2.82</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25">
+        <v>7.5</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="4"/>
       <c r="U25" s="4">
         <v>20</v>
       </c>
@@ -1828,21 +2422,35 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26">
+        <v>5249</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>3.5</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="4"/>
       <c r="U26" s="4">
         <v>21</v>
       </c>
@@ -1858,17 +2466,34 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="4"/>
       <c r="U27" s="4">
         <v>22</v>
       </c>
@@ -1883,20 +2508,33 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>57</v>
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3.11</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>3.11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>97</v>
       </c>
       <c r="U28" s="4">
         <v>23</v>
@@ -1912,6 +2550,34 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+      <c r="I29" t="s">
+        <v>103</v>
+      </c>
       <c r="U29" s="4">
         <v>24</v>
       </c>
@@ -1926,6 +2592,34 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30">
+        <v>9.99</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>9.99</v>
+      </c>
+      <c r="I30" t="s">
+        <v>167</v>
+      </c>
       <c r="U30" s="4">
         <v>25</v>
       </c>
@@ -1940,6 +2634,34 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31">
+        <v>4.01</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="1"/>
+        <v>4.01</v>
+      </c>
+      <c r="I31" t="s">
+        <v>115</v>
+      </c>
       <c r="U31" s="4">
         <v>26</v>
       </c>
@@ -1954,6 +2676,13 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32">
+        <f>SUM(H2:H31)</f>
+        <v>112.73999999999997</v>
+      </c>
       <c r="U32" s="4">
         <v>27</v>
       </c>
